--- a/v1/BOM/cr2032_bs_bom.xlsx
+++ b/v1/BOM/cr2032_bs_bom.xlsx
@@ -63,9 +63,6 @@
     <t>JP1, JP2</t>
   </si>
   <si>
-    <t>0.1" 12-pin header</t>
-  </si>
-  <si>
     <t>68000-412HLF</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Linx</t>
+  </si>
+  <si>
+    <t>0.1" 12-pin stackable female header</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,7 +634,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -657,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -669,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -690,20 +689,20 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>3</v>
@@ -716,23 +715,23 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -746,23 +745,23 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>3</v>
@@ -776,13 +775,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -809,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
@@ -834,13 +833,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>8</v>
@@ -864,25 +863,25 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>3</v>
@@ -899,18 +898,18 @@
         <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>3</v>

--- a/v1/BOM/cr2032_bs_bom.xlsx
+++ b/v1/BOM/cr2032_bs_bom.xlsx
@@ -60,9 +60,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>JP1, JP2</t>
-  </si>
-  <si>
     <t>68000-412HLF</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>0.1" 12-pin stackable female header</t>
+  </si>
+  <si>
+    <t>JP2, JP3</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -656,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -689,20 +689,20 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>3</v>
@@ -715,23 +715,23 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -745,23 +745,23 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
@@ -833,13 +833,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>8</v>
@@ -863,25 +863,25 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>3</v>
@@ -895,21 +895,21 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>3</v>
